--- a/LeetCode图解/232-用栈实现队列.xlsx
+++ b/LeetCode图解/232-用栈实现队列.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="7905"/>
+    <workbookView windowWidth="19410" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="232-用栈实现队列" sheetId="1" r:id="rId1"/>
@@ -1120,8 +1120,8 @@
   <sheetPr/>
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1740,7 +1740,7 @@
   <sheetPr/>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
